--- a/иксы.xlsx
+++ b/иксы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phantom\Desktop\Phantom16950\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameHD\Desktop\Phantom 16950\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE24E54A-E45B-4A64-836A-44F3D02F1B0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62C20069-724B-4049-8AFE-8A0F0D681AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{21F02BF0-03FB-47BE-8978-E40B3449072B}"/>
+    <workbookView xWindow="3300" yWindow="3135" windowWidth="28800" windowHeight="15435" xr2:uid="{21F02BF0-03FB-47BE-8978-E40B3449072B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,26 +23,46 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Длина, мм</t>
   </si>
   <si>
     <t>Количество, шт</t>
   </si>
+  <si>
+    <t>Длина * количество</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -70,22 +90,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -99,11 +130,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{965F84AB-33D8-49DF-9C3B-9E84725C7E3A}" name="Таблица1" displayName="Таблица1" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7" xr:uid="{D81EDE77-192E-498B-ADD4-BCC3762AE453}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{02296AE0-7039-4132-AA7D-2EF4DB4ED66B}" name="Количество, шт"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{965F84AB-33D8-49DF-9C3B-9E84725C7E3A}" name="Таблица1" displayName="Таблица1" ref="A1:C9" totalsRowCount="1">
+  <autoFilter ref="A1:C8" xr:uid="{D81EDE77-192E-498B-ADD4-BCC3762AE453}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{02296AE0-7039-4132-AA7D-2EF4DB4ED66B}" name="Количество, шт" totalsRowFunction="custom" totalsRowDxfId="0">
+      <totalsRowFormula>SUM(A2:A8)</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{B66961AF-B91C-4A12-8E35-FAE280DC01C0}" name="Длина, мм"/>
+    <tableColumn id="3" xr3:uid="{65EE8E9D-FE95-4C72-9669-CA03565B3DA9}" name="Длина * количество" totalsRowFunction="custom" dataDxfId="1">
+      <calculatedColumnFormula>PRODUCT(A2:Таблица1[[#This Row],[Длина, мм]])</calculatedColumnFormula>
+      <totalsRowFormula>SUM(C2:C8)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -406,72 +443,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1A0EA7-ED4D-443C-BFBF-9834C5B8EFC2}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="C2" s="1">
+        <f>PRODUCT(A2:Таблица1[[#This Row],[Длина, мм]])</f>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>206</v>
+      </c>
+      <c r="C3" s="1">
+        <f>PRODUCT(A3:Таблица1[[#This Row],[Длина, мм]])</f>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="B4" s="2">
+        <v>340</v>
+      </c>
+      <c r="C4" s="1">
+        <f>PRODUCT(A4:Таблица1[[#This Row],[Длина, мм]])</f>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="B5" s="2">
+        <v>250</v>
+      </c>
+      <c r="C5" s="1">
+        <f>PRODUCT(A5:Таблица1[[#This Row],[Длина, мм]])</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>246</v>
+      </c>
+      <c r="C6" s="1">
+        <f>PRODUCT(A6:Таблица1[[#This Row],[Длина, мм]])</f>
+        <v>984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>280</v>
+      </c>
+      <c r="C7" s="1">
+        <f>PRODUCT(A7:Таблица1[[#This Row],[Длина, мм]])</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>280</v>
+      <c r="B8" s="1">
+        <v>160</v>
+      </c>
+      <c r="C8" s="1">
+        <f>PRODUCT(A8:Таблица1[[#This Row],[Длина, мм]])</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f>SUM(A2:A8)</f>
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <f>SUM(C2:C8)</f>
+        <v>4110</v>
       </c>
     </row>
   </sheetData>
